--- a/dev/readme.xlsx
+++ b/dev/readme.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>https://desktop.githubusercontent.com/releases/1.0.4-6e5e9664/GitHubDesktopSetup.exe</t>
   </si>
@@ -76,19 +76,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>URL：https://download-cf.jetbrains.com/webstorm/WebStorm-2017.2.5.exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：默认字体太小，按以下方式调整。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六步：打开下载好的OAGojira项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>用户：lan yu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>URL：https://download-cf.jetbrains.com/webstorm/WebStorm-2017.2.5.exe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意：默认字体太小，按以下方式调整。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第六步：打开下载好的OAGojira项目</t>
+    <t>注册网址：http://idea.lanyus.com/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -571,13 +575,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>198</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -611,13 +615,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>257176</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -704,13 +708,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>257176</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1099,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W201"/>
+  <dimension ref="A1:W202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="Q209" sqref="Q209"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="16.5"/>
@@ -1178,45 +1182,28 @@
     </row>
     <row r="145" spans="3:23">
       <c r="C145" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="146" spans="3:23">
       <c r="C146" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="147" spans="3:23">
       <c r="C147" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="3:23">
+      <c r="C148" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="3:23">
-      <c r="D148" s="4" t="s">
+    <row r="149" spans="3:23">
+      <c r="D149" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E148" s="4"/>
-      <c r="F148" s="4"/>
-      <c r="G148" s="4"/>
-      <c r="H148" s="4"/>
-      <c r="I148" s="4"/>
-      <c r="J148" s="4"/>
-      <c r="K148" s="4"/>
-      <c r="L148" s="4"/>
-      <c r="M148" s="4"/>
-      <c r="N148" s="4"/>
-      <c r="O148" s="4"/>
-      <c r="P148" s="4"/>
-      <c r="Q148" s="4"/>
-      <c r="R148" s="4"/>
-      <c r="S148" s="4"/>
-      <c r="T148" s="4"/>
-      <c r="U148" s="4"/>
-      <c r="V148" s="4"/>
-      <c r="W148" s="4"/>
-    </row>
-    <row r="149" spans="3:23">
-      <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
@@ -1699,19 +1686,41 @@
       <c r="V170" s="4"/>
       <c r="W170" s="4"/>
     </row>
-    <row r="172" spans="3:23">
-      <c r="C172" s="1" t="s">
+    <row r="171" spans="3:23">
+      <c r="D171" s="4"/>
+      <c r="E171" s="4"/>
+      <c r="F171" s="4"/>
+      <c r="G171" s="4"/>
+      <c r="H171" s="4"/>
+      <c r="I171" s="4"/>
+      <c r="J171" s="4"/>
+      <c r="K171" s="4"/>
+      <c r="L171" s="4"/>
+      <c r="M171" s="4"/>
+      <c r="N171" s="4"/>
+      <c r="O171" s="4"/>
+      <c r="P171" s="4"/>
+      <c r="Q171" s="4"/>
+      <c r="R171" s="4"/>
+      <c r="S171" s="4"/>
+      <c r="T171" s="4"/>
+      <c r="U171" s="4"/>
+      <c r="V171" s="4"/>
+      <c r="W171" s="4"/>
+    </row>
+    <row r="173" spans="3:23">
+      <c r="C173" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202" s="2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="201" spans="2:2">
-      <c r="B201" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D148:W170"/>
+    <mergeCell ref="D149:W171"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dev/readme.xlsx
+++ b/dev/readme.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="一、搭建开发环境" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -76,6 +74,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>用户：lan yu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>URL：https://download-cf.jetbrains.com/webstorm/WebStorm-2017.2.5.exe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,12 +90,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户：lan yu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>注册网址：http://idea.lanyus.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -168,7 +165,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -184,6 +181,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -198,19 +201,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>113989</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPr id="1027" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -224,55 +227,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="314325" y="542925"/>
-          <a:ext cx="1066800" cy="990600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1027" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="628650" y="2886075"/>
-          <a:ext cx="3790950" cy="5476875"/>
+          <a:off x="876300" y="2181225"/>
+          <a:ext cx="2676525" cy="3866839"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -293,14 +249,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>50398</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -310,7 +266,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -318,8 +274,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="504825" y="8753475"/>
-          <a:ext cx="9525000" cy="6086475"/>
+          <a:off x="819150" y="12849226"/>
+          <a:ext cx="8277225" cy="5289147"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -331,16 +287,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>200026</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -349,7 +305,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5143501" y="11820525"/>
+          <a:off x="4800601" y="15411450"/>
           <a:ext cx="1657350" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
@@ -434,14 +390,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>44088</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -451,7 +407,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -459,55 +415,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="895350" y="15706725"/>
-          <a:ext cx="4848225" cy="3790950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1031" name="Picture 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="828675" y="20583525"/>
-          <a:ext cx="6448425" cy="4210050"/>
+          <a:off x="895350" y="12773025"/>
+          <a:ext cx="5781675" cy="4520838"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -528,14 +437,61 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>4719</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1031" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="809625" y="19107150"/>
+          <a:ext cx="7367544" cy="4810125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>92167</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -545,7 +501,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -553,8 +509,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="809625" y="25317450"/>
-          <a:ext cx="6448425" cy="4210050"/>
+          <a:off x="809626" y="24898349"/>
+          <a:ext cx="7362824" cy="4807043"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -575,13 +531,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -592,7 +548,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -615,13 +571,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>257176</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -708,13 +664,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>257176</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -787,6 +743,104 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>163300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="571501" y="43186350"/>
+          <a:ext cx="4162424" cy="5240125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="333333">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>13119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3600450" y="44034076"/>
+          <a:ext cx="5857875" cy="3823118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="333333">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1103,10 +1157,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W202"/>
+  <dimension ref="A1:W206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="C147" sqref="C147"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="Q143" sqref="Q143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="16.5"/>
@@ -1130,168 +1184,102 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:4">
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="12.75" customHeight="1">
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="10" spans="1:4">
-      <c r="C10" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="12.75" customHeight="1">
-      <c r="B12" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="C14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="D15" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="3:3">
-      <c r="C42" s="1" t="s">
+    <row r="30" spans="3:3">
+      <c r="C30" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="2" t="s">
+    <row r="60" spans="2:2">
+      <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="2:2">
-      <c r="B95" s="2" t="s">
+    <row r="88" spans="2:3">
+      <c r="B88" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="3:3">
-      <c r="C97" s="1" t="s">
+    <row r="90" spans="2:3">
+      <c r="C90" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="3:3">
-      <c r="C120" s="1" t="s">
+    <row r="118" spans="3:3">
+      <c r="C118" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="2:2">
-      <c r="B143" s="2" t="s">
+    <row r="147" spans="1:23">
+      <c r="B147" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="3:23">
-      <c r="C145" s="1" t="s">
+    <row r="149" spans="1:23">
+      <c r="C149" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23">
+      <c r="A150" s="6"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5"/>
+      <c r="K150" s="5"/>
+      <c r="L150" s="5"/>
+      <c r="M150" s="5"/>
+      <c r="N150" s="5"/>
+      <c r="O150" s="5"/>
+      <c r="P150" s="5"/>
+      <c r="Q150" s="5"/>
+      <c r="R150" s="5"/>
+      <c r="S150" s="5"/>
+      <c r="T150" s="5"/>
+      <c r="U150" s="5"/>
+      <c r="V150" s="5"/>
+      <c r="W150" s="5"/>
+    </row>
+    <row r="151" spans="1:23">
+      <c r="C151" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="3:23">
-      <c r="C146" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="147" spans="3:23">
-      <c r="C147" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="148" spans="3:23">
-      <c r="C148" s="1" t="s">
+    <row r="152" spans="1:23">
+      <c r="C152" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="3:23">
-      <c r="D149" s="4" t="s">
+    <row r="153" spans="1:23">
+      <c r="D153" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E149" s="4"/>
-      <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
-      <c r="H149" s="4"/>
-      <c r="I149" s="4"/>
-      <c r="J149" s="4"/>
-      <c r="K149" s="4"/>
-      <c r="L149" s="4"/>
-      <c r="M149" s="4"/>
-      <c r="N149" s="4"/>
-      <c r="O149" s="4"/>
-      <c r="P149" s="4"/>
-      <c r="Q149" s="4"/>
-      <c r="R149" s="4"/>
-      <c r="S149" s="4"/>
-      <c r="T149" s="4"/>
-      <c r="U149" s="4"/>
-      <c r="V149" s="4"/>
-      <c r="W149" s="4"/>
-    </row>
-    <row r="150" spans="3:23">
-      <c r="D150" s="4"/>
-      <c r="E150" s="4"/>
-      <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
-      <c r="H150" s="4"/>
-      <c r="I150" s="4"/>
-      <c r="J150" s="4"/>
-      <c r="K150" s="4"/>
-      <c r="L150" s="4"/>
-      <c r="M150" s="4"/>
-      <c r="N150" s="4"/>
-      <c r="O150" s="4"/>
-      <c r="P150" s="4"/>
-      <c r="Q150" s="4"/>
-      <c r="R150" s="4"/>
-      <c r="S150" s="4"/>
-      <c r="T150" s="4"/>
-      <c r="U150" s="4"/>
-      <c r="V150" s="4"/>
-      <c r="W150" s="4"/>
-    </row>
-    <row r="151" spans="3:23">
-      <c r="D151" s="4"/>
-      <c r="E151" s="4"/>
-      <c r="F151" s="4"/>
-      <c r="G151" s="4"/>
-      <c r="H151" s="4"/>
-      <c r="I151" s="4"/>
-      <c r="J151" s="4"/>
-      <c r="K151" s="4"/>
-      <c r="L151" s="4"/>
-      <c r="M151" s="4"/>
-      <c r="N151" s="4"/>
-      <c r="O151" s="4"/>
-      <c r="P151" s="4"/>
-      <c r="Q151" s="4"/>
-      <c r="R151" s="4"/>
-      <c r="S151" s="4"/>
-      <c r="T151" s="4"/>
-      <c r="U151" s="4"/>
-      <c r="V151" s="4"/>
-      <c r="W151" s="4"/>
-    </row>
-    <row r="152" spans="3:23">
-      <c r="D152" s="4"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
-      <c r="H152" s="4"/>
-      <c r="I152" s="4"/>
-      <c r="J152" s="4"/>
-      <c r="K152" s="4"/>
-      <c r="L152" s="4"/>
-      <c r="M152" s="4"/>
-      <c r="N152" s="4"/>
-      <c r="O152" s="4"/>
-      <c r="P152" s="4"/>
-      <c r="Q152" s="4"/>
-      <c r="R152" s="4"/>
-      <c r="S152" s="4"/>
-      <c r="T152" s="4"/>
-      <c r="U152" s="4"/>
-      <c r="V152" s="4"/>
-      <c r="W152" s="4"/>
-    </row>
-    <row r="153" spans="3:23">
-      <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
@@ -1312,7 +1300,7 @@
       <c r="V153" s="4"/>
       <c r="W153" s="4"/>
     </row>
-    <row r="154" spans="3:23">
+    <row r="154" spans="1:23">
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
@@ -1334,7 +1322,7 @@
       <c r="V154" s="4"/>
       <c r="W154" s="4"/>
     </row>
-    <row r="155" spans="3:23">
+    <row r="155" spans="1:23">
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
@@ -1356,7 +1344,7 @@
       <c r="V155" s="4"/>
       <c r="W155" s="4"/>
     </row>
-    <row r="156" spans="3:23">
+    <row r="156" spans="1:23">
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
@@ -1378,7 +1366,7 @@
       <c r="V156" s="4"/>
       <c r="W156" s="4"/>
     </row>
-    <row r="157" spans="3:23">
+    <row r="157" spans="1:23">
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
@@ -1400,7 +1388,7 @@
       <c r="V157" s="4"/>
       <c r="W157" s="4"/>
     </row>
-    <row r="158" spans="3:23">
+    <row r="158" spans="1:23">
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
@@ -1422,7 +1410,7 @@
       <c r="V158" s="4"/>
       <c r="W158" s="4"/>
     </row>
-    <row r="159" spans="3:23">
+    <row r="159" spans="1:23">
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
@@ -1444,7 +1432,7 @@
       <c r="V159" s="4"/>
       <c r="W159" s="4"/>
     </row>
-    <row r="160" spans="3:23">
+    <row r="160" spans="1:23">
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
@@ -1466,7 +1454,7 @@
       <c r="V160" s="4"/>
       <c r="W160" s="4"/>
     </row>
-    <row r="161" spans="3:23">
+    <row r="161" spans="4:23">
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
@@ -1488,7 +1476,7 @@
       <c r="V161" s="4"/>
       <c r="W161" s="4"/>
     </row>
-    <row r="162" spans="3:23">
+    <row r="162" spans="4:23">
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
@@ -1510,7 +1498,7 @@
       <c r="V162" s="4"/>
       <c r="W162" s="4"/>
     </row>
-    <row r="163" spans="3:23">
+    <row r="163" spans="4:23">
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
@@ -1532,7 +1520,7 @@
       <c r="V163" s="4"/>
       <c r="W163" s="4"/>
     </row>
-    <row r="164" spans="3:23">
+    <row r="164" spans="4:23">
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
@@ -1554,7 +1542,7 @@
       <c r="V164" s="4"/>
       <c r="W164" s="4"/>
     </row>
-    <row r="165" spans="3:23">
+    <row r="165" spans="4:23">
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
@@ -1576,7 +1564,7 @@
       <c r="V165" s="4"/>
       <c r="W165" s="4"/>
     </row>
-    <row r="166" spans="3:23">
+    <row r="166" spans="4:23">
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
@@ -1598,7 +1586,7 @@
       <c r="V166" s="4"/>
       <c r="W166" s="4"/>
     </row>
-    <row r="167" spans="3:23">
+    <row r="167" spans="4:23">
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
@@ -1620,7 +1608,7 @@
       <c r="V167" s="4"/>
       <c r="W167" s="4"/>
     </row>
-    <row r="168" spans="3:23">
+    <row r="168" spans="4:23">
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
@@ -1642,7 +1630,7 @@
       <c r="V168" s="4"/>
       <c r="W168" s="4"/>
     </row>
-    <row r="169" spans="3:23">
+    <row r="169" spans="4:23">
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
@@ -1664,7 +1652,7 @@
       <c r="V169" s="4"/>
       <c r="W169" s="4"/>
     </row>
-    <row r="170" spans="3:23">
+    <row r="170" spans="4:23">
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
@@ -1686,7 +1674,7 @@
       <c r="V170" s="4"/>
       <c r="W170" s="4"/>
     </row>
-    <row r="171" spans="3:23">
+    <row r="171" spans="4:23">
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
@@ -1708,49 +1696,111 @@
       <c r="V171" s="4"/>
       <c r="W171" s="4"/>
     </row>
-    <row r="173" spans="3:23">
-      <c r="C173" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="202" spans="2:2">
-      <c r="B202" s="2" t="s">
+    <row r="172" spans="4:23">
+      <c r="D172" s="4"/>
+      <c r="E172" s="4"/>
+      <c r="F172" s="4"/>
+      <c r="G172" s="4"/>
+      <c r="H172" s="4"/>
+      <c r="I172" s="4"/>
+      <c r="J172" s="4"/>
+      <c r="K172" s="4"/>
+      <c r="L172" s="4"/>
+      <c r="M172" s="4"/>
+      <c r="N172" s="4"/>
+      <c r="O172" s="4"/>
+      <c r="P172" s="4"/>
+      <c r="Q172" s="4"/>
+      <c r="R172" s="4"/>
+      <c r="S172" s="4"/>
+      <c r="T172" s="4"/>
+      <c r="U172" s="4"/>
+      <c r="V172" s="4"/>
+      <c r="W172" s="4"/>
+    </row>
+    <row r="173" spans="4:23">
+      <c r="D173" s="4"/>
+      <c r="E173" s="4"/>
+      <c r="F173" s="4"/>
+      <c r="G173" s="4"/>
+      <c r="H173" s="4"/>
+      <c r="I173" s="4"/>
+      <c r="J173" s="4"/>
+      <c r="K173" s="4"/>
+      <c r="L173" s="4"/>
+      <c r="M173" s="4"/>
+      <c r="N173" s="4"/>
+      <c r="O173" s="4"/>
+      <c r="P173" s="4"/>
+      <c r="Q173" s="4"/>
+      <c r="R173" s="4"/>
+      <c r="S173" s="4"/>
+      <c r="T173" s="4"/>
+      <c r="U173" s="4"/>
+      <c r="V173" s="4"/>
+      <c r="W173" s="4"/>
+    </row>
+    <row r="174" spans="4:23">
+      <c r="D174" s="4"/>
+      <c r="E174" s="4"/>
+      <c r="F174" s="4"/>
+      <c r="G174" s="4"/>
+      <c r="H174" s="4"/>
+      <c r="I174" s="4"/>
+      <c r="J174" s="4"/>
+      <c r="K174" s="4"/>
+      <c r="L174" s="4"/>
+      <c r="M174" s="4"/>
+      <c r="N174" s="4"/>
+      <c r="O174" s="4"/>
+      <c r="P174" s="4"/>
+      <c r="Q174" s="4"/>
+      <c r="R174" s="4"/>
+      <c r="S174" s="4"/>
+      <c r="T174" s="4"/>
+      <c r="U174" s="4"/>
+      <c r="V174" s="4"/>
+      <c r="W174" s="4"/>
+    </row>
+    <row r="175" spans="4:23">
+      <c r="D175" s="4"/>
+      <c r="E175" s="4"/>
+      <c r="F175" s="4"/>
+      <c r="G175" s="4"/>
+      <c r="H175" s="4"/>
+      <c r="I175" s="4"/>
+      <c r="J175" s="4"/>
+      <c r="K175" s="4"/>
+      <c r="L175" s="4"/>
+      <c r="M175" s="4"/>
+      <c r="N175" s="4"/>
+      <c r="O175" s="4"/>
+      <c r="P175" s="4"/>
+      <c r="Q175" s="4"/>
+      <c r="R175" s="4"/>
+      <c r="S175" s="4"/>
+      <c r="T175" s="4"/>
+      <c r="U175" s="4"/>
+      <c r="V175" s="4"/>
+      <c r="W175" s="4"/>
+    </row>
+    <row r="177" spans="3:3">
+      <c r="C177" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2">
+      <c r="B206" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D149:W171"/>
+    <mergeCell ref="D153:W175"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/dev/readme.xlsx
+++ b/dev/readme.xlsx
@@ -62,35 +62,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>注册码：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNEKJPQZEX-eyJsaWNlbnNlSWQiOiJDTkVLSlBRWkVYIiwibGljZW5zZWVOYW1lIjoibGFuIHl1IiwiYXNzaWduZWVOYW1lIjoiIiwiYXNzaWduZWVFbWFpbCI6IiIsImxpY2Vuc2VSZXN0cmljdGlvbiI6IkZvciBlZHVjYXRpb25hbCB1c2Ugb25seSIsImNoZWNrQ29uY3VycmVudFVzZSI6ZmFsc2UsInByb2R1Y3RzIjpbeyJjb2RlIjoiQUMiLCJwYWlkVXBUbyI6IjIwMTgtMDEtMzAifSx7ImNvZGUiOiJETSIsInBhaWRVcFRvIjoiMjAxOC0wMS0zMCJ9LHsiY29kZSI6IklJIiwicGFpZFVwVG8iOiIyMDE4LTAxLTMwIn0seyJjb2RlIjoiUlMwIiwicGFpZFVwVG8iOiIyMDE4LTAxLTMwIn0seyJjb2RlIjoiV1MiLCJwYWlkVXBUbyI6IjIwMTgtMDEtMzAifSx7ImNvZGUiOiJEUE4iLCJwYWlkVXBUbyI6IjIwMTgtMDEtMzAifSx7ImNvZGUiOiJSQyIsInBhaWRVcFRvIjoiMjAxOC0wMS0zMCJ9LHsiY29kZSI6IlBTIiwicGFpZFVwVG8iOiIyMDE4LTAxLTMwIn0seyJjb2RlIjoiREMiLCJwYWlkVXBUbyI6IjIwMTgtMDEtMzAifSx7ImNvZGUiOiJEQiIsInBhaWRVcFRvIjoiMjAxOC0wMS0zMCJ9LHsiY29kZSI6IlJNIiwicGFpZFVwVG8iOiIyMDE4LTAxLTMwIn0seyJjb2RlIjoiUEMiLCJwYWlkVXBUbyI6IjIwMTgtMDEtMzAifSx7ImNvZGUiOiJDTCIsInBhaWRVcFRvIjoiMjAxOC0wMS0zMCJ9XSwiaGFzaCI6IjUxOTU1OTMvMCIsImdyYWNlUGVyaW9kRGF5cyI6MCwiYXV0b1Byb2xvbmdhdGVkIjpmYWxzZSwiaXNBdXRvUHJvbG9uZ2F0ZWQiOmZhbHNlfQ==-QOxwjWvRwJz6vo6J6adC3CJ4ukQHosbPYZ94URUVFna/Rbew8xK/M5gP3kAaPh6ZDveFdtMR1UBoumq3eCwXtXM3U3ls5noB4LIr+QplVlCj2pK5uNq7g/feyNyQcHpSXtvhIOnXDBLOecB05DOsxzm0p7ulGGJoAInmHeb9mc0eYjqc4RPpUQfh6HSYBnvEnKMlLF5bz4KEtzmsvvgA55CwzwQ3gRitm5Q/wUT7AQCBdjmBfNUjKVQL6TSjSDPp56FUdEs4Aab8LqstA2DIMbxocO64rvytmcUeIwu8Mi5uq87KQP5AQMSMYb59Inbd+dmVfx5cJo3fRS4/5s3/Hg==-MIIEPjCCAiagAwIBAgIBBTANBgkqhkiG9w0BAQsFADAYMRYwFAYDVQQDDA1KZXRQcm9maWxlIENBMB4XDTE1MTEwMjA4MjE0OFoXDTE4MTEwMTA4MjE0OFowETEPMA0GA1UEAwwGcHJvZDN5MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAxcQkq+zdxlR2mmRYBPzGbUNdMN6OaXiXzxIWtMEkrJMO/5oUfQJbLLuMSMK0QHFmaI37WShyxZcfRCidwXjot4zmNBKnlyHodDij/78TmVqFl8nOeD5+07B8VEaIu7c3E1N+e1doC6wht4I4+IEmtsPAdoaj5WCQVQbrI8KeT8M9VcBIWX7fD0fhexfg3ZRt0xqwMcXGNp3DdJHiO0rCdU+Itv7EmtnSVq9jBG1usMSFvMowR25mju2JcPFp1+I4ZI+FqgR8gyG8oiNDyNEoAbsR3lOpI7grUYSvkB/xVy/VoklPCK2h0f0GJxFjnye8NT1PAywoyl7RmiAVRE/EKwIDAQABo4GZMIGWMAkGA1UdEwQCMAAwHQYDVR0OBBYEFGEpG9oZGcfLMGNBkY7SgHiMGgTcMEgGA1UdIwRBMD+AFKOetkhnQhI2Qb1t4Lm0oFKLl/GzoRykGjAYMRYwFAYDVQQDDA1KZXRQcm9maWxlIENBggkA0myxg7KDeeEwEwYDVR0lBAwwCgYIKwYBBQUHAwEwCwYDVR0PBAQDAgWgMA0GCSqGSIb3DQEBCwUAA4ICAQC9WZuYgQedSuOc5TOUSrRigMw4/+wuC5EtZBfvdl4HT/8vzMW/oUlIP4YCvA0XKyBaCJ2iX+ZCDKoPfiYXiaSiH+HxAPV6J79vvouxKrWg2XV6ShFtPLP+0gPdGq3x9R3+kJbmAm8w+FOdlWqAfJrLvpzMGNeDU14YGXiZ9bVzmIQbwrBA+c/F4tlK/DV07dsNExihqFoibnqDiVNTGombaU2dDup2gwKdL81ua8EIcGNExHe82kjF4zwfadHk3bQVvbfdAwxcDy4xBjs3L4raPLU3yenSzr/OEur1+jfOxnQSmEcMXKXgrAQ9U55gwjcOFKrgOxEdek/Sk1VfOjvS+nuM4eyEruFMfaZHzoQiuw4IqgGc45ohFH0UUyjYcuFxxDSU9lMCv8qdHKm+wnPRb0l9l5vXsCBDuhAGYD6ss+Ga+aDY6f/qXZuUCEUOH3QUNbbCUlviSz6+GiRnt1kA9N2Qachl+2yBfaqUqr8h7Z2gsx5LcIf5kYNsqJ0GavXTVyWh7PYiKX4bs354ZQLUwwa/cG++2+wNWP+HtBhVxMRNTdVhSm38AknZlD+PTAsWGu9GyLmhti2EnVwGybSD2Dxmhxk3IPCkhKAK+pl0eWYGZWG3tJ9mZ7SowcXLWDFAk0lRJnKGFMTggrWjV8GYpw5bq23VmIqqDLgkNzuoog==</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户：lan yu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL：https://download-cf.jetbrains.com/webstorm/WebStorm-2017.2.5.exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：默认字体太小，按以下方式调整。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六步：打开下载好的OAGojira项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册网址：http://idea.lanyus.com/</t>
+  </si>
+  <si>
     <t>第五步：下载WebStorm并安装。</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册码：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CNEKJPQZEX-eyJsaWNlbnNlSWQiOiJDTkVLSlBRWkVYIiwibGljZW5zZWVOYW1lIjoibGFuIHl1IiwiYXNzaWduZWVOYW1lIjoiIiwiYXNzaWduZWVFbWFpbCI6IiIsImxpY2Vuc2VSZXN0cmljdGlvbiI6IkZvciBlZHVjYXRpb25hbCB1c2Ugb25seSIsImNoZWNrQ29uY3VycmVudFVzZSI6ZmFsc2UsInByb2R1Y3RzIjpbeyJjb2RlIjoiQUMiLCJwYWlkVXBUbyI6IjIwMTgtMDEtMzAifSx7ImNvZGUiOiJETSIsInBhaWRVcFRvIjoiMjAxOC0wMS0zMCJ9LHsiY29kZSI6IklJIiwicGFpZFVwVG8iOiIyMDE4LTAxLTMwIn0seyJjb2RlIjoiUlMwIiwicGFpZFVwVG8iOiIyMDE4LTAxLTMwIn0seyJjb2RlIjoiV1MiLCJwYWlkVXBUbyI6IjIwMTgtMDEtMzAifSx7ImNvZGUiOiJEUE4iLCJwYWlkVXBUbyI6IjIwMTgtMDEtMzAifSx7ImNvZGUiOiJSQyIsInBhaWRVcFRvIjoiMjAxOC0wMS0zMCJ9LHsiY29kZSI6IlBTIiwicGFpZFVwVG8iOiIyMDE4LTAxLTMwIn0seyJjb2RlIjoiREMiLCJwYWlkVXBUbyI6IjIwMTgtMDEtMzAifSx7ImNvZGUiOiJEQiIsInBhaWRVcFRvIjoiMjAxOC0wMS0zMCJ9LHsiY29kZSI6IlJNIiwicGFpZFVwVG8iOiIyMDE4LTAxLTMwIn0seyJjb2RlIjoiUEMiLCJwYWlkVXBUbyI6IjIwMTgtMDEtMzAifSx7ImNvZGUiOiJDTCIsInBhaWRVcFRvIjoiMjAxOC0wMS0zMCJ9XSwiaGFzaCI6IjUxOTU1OTMvMCIsImdyYWNlUGVyaW9kRGF5cyI6MCwiYXV0b1Byb2xvbmdhdGVkIjpmYWxzZSwiaXNBdXRvUHJvbG9uZ2F0ZWQiOmZhbHNlfQ==-QOxwjWvRwJz6vo6J6adC3CJ4ukQHosbPYZ94URUVFna/Rbew8xK/M5gP3kAaPh6ZDveFdtMR1UBoumq3eCwXtXM3U3ls5noB4LIr+QplVlCj2pK5uNq7g/feyNyQcHpSXtvhIOnXDBLOecB05DOsxzm0p7ulGGJoAInmHeb9mc0eYjqc4RPpUQfh6HSYBnvEnKMlLF5bz4KEtzmsvvgA55CwzwQ3gRitm5Q/wUT7AQCBdjmBfNUjKVQL6TSjSDPp56FUdEs4Aab8LqstA2DIMbxocO64rvytmcUeIwu8Mi5uq87KQP5AQMSMYb59Inbd+dmVfx5cJo3fRS4/5s3/Hg==-MIIEPjCCAiagAwIBAgIBBTANBgkqhkiG9w0BAQsFADAYMRYwFAYDVQQDDA1KZXRQcm9maWxlIENBMB4XDTE1MTEwMjA4MjE0OFoXDTE4MTEwMTA4MjE0OFowETEPMA0GA1UEAwwGcHJvZDN5MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAxcQkq+zdxlR2mmRYBPzGbUNdMN6OaXiXzxIWtMEkrJMO/5oUfQJbLLuMSMK0QHFmaI37WShyxZcfRCidwXjot4zmNBKnlyHodDij/78TmVqFl8nOeD5+07B8VEaIu7c3E1N+e1doC6wht4I4+IEmtsPAdoaj5WCQVQbrI8KeT8M9VcBIWX7fD0fhexfg3ZRt0xqwMcXGNp3DdJHiO0rCdU+Itv7EmtnSVq9jBG1usMSFvMowR25mju2JcPFp1+I4ZI+FqgR8gyG8oiNDyNEoAbsR3lOpI7grUYSvkB/xVy/VoklPCK2h0f0GJxFjnye8NT1PAywoyl7RmiAVRE/EKwIDAQABo4GZMIGWMAkGA1UdEwQCMAAwHQYDVR0OBBYEFGEpG9oZGcfLMGNBkY7SgHiMGgTcMEgGA1UdIwRBMD+AFKOetkhnQhI2Qb1t4Lm0oFKLl/GzoRykGjAYMRYwFAYDVQQDDA1KZXRQcm9maWxlIENBggkA0myxg7KDeeEwEwYDVR0lBAwwCgYIKwYBBQUHAwEwCwYDVR0PBAQDAgWgMA0GCSqGSIb3DQEBCwUAA4ICAQC9WZuYgQedSuOc5TOUSrRigMw4/+wuC5EtZBfvdl4HT/8vzMW/oUlIP4YCvA0XKyBaCJ2iX+ZCDKoPfiYXiaSiH+HxAPV6J79vvouxKrWg2XV6ShFtPLP+0gPdGq3x9R3+kJbmAm8w+FOdlWqAfJrLvpzMGNeDU14YGXiZ9bVzmIQbwrBA+c/F4tlK/DV07dsNExihqFoibnqDiVNTGombaU2dDup2gwKdL81ua8EIcGNExHe82kjF4zwfadHk3bQVvbfdAwxcDy4xBjs3L4raPLU3yenSzr/OEur1+jfOxnQSmEcMXKXgrAQ9U55gwjcOFKrgOxEdek/Sk1VfOjvS+nuM4eyEruFMfaZHzoQiuw4IqgGc45ohFH0UUyjYcuFxxDSU9lMCv8qdHKm+wnPRb0l9l5vXsCBDuhAGYD6ss+Ga+aDY6f/qXZuUCEUOH3QUNbbCUlviSz6+GiRnt1kA9N2Qachl+2yBfaqUqr8h7Z2gsx5LcIf5kYNsqJ0GavXTVyWh7PYiKX4bs354ZQLUwwa/cG++2+wNWP+HtBhVxMRNTdVhSm38AknZlD+PTAsWGu9GyLmhti2EnVwGybSD2Dxmhxk3IPCkhKAK+pl0eWYGZWG3tJ9mZ7SowcXLWDFAk0lRJnKGFMTggrWjV8GYpw5bq23VmIqqDLgkNzuoog==</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户：lan yu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL：https://download-cf.jetbrains.com/webstorm/WebStorm-2017.2.5.exe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意：默认字体太小，按以下方式调整。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第六步：打开下载好的OAGojira项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册网址：http://idea.lanyus.com/</t>
   </si>
 </sst>
 </file>
@@ -178,14 +178,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1159,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="Q143" sqref="Q143"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X209" sqref="X209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="16.5"/>
@@ -1231,567 +1231,567 @@
     </row>
     <row r="147" spans="1:23">
       <c r="B147" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149" spans="1:23">
       <c r="C149" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="150" spans="1:23">
-      <c r="A150" s="6"/>
-      <c r="B150" s="6"/>
-      <c r="C150" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5"/>
-      <c r="G150" s="5"/>
-      <c r="H150" s="5"/>
-      <c r="I150" s="5"/>
-      <c r="J150" s="5"/>
-      <c r="K150" s="5"/>
-      <c r="L150" s="5"/>
-      <c r="M150" s="5"/>
-      <c r="N150" s="5"/>
-      <c r="O150" s="5"/>
-      <c r="P150" s="5"/>
-      <c r="Q150" s="5"/>
-      <c r="R150" s="5"/>
-      <c r="S150" s="5"/>
-      <c r="T150" s="5"/>
-      <c r="U150" s="5"/>
-      <c r="V150" s="5"/>
-      <c r="W150" s="5"/>
+      <c r="A150" s="5"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="4"/>
+      <c r="I150" s="4"/>
+      <c r="J150" s="4"/>
+      <c r="K150" s="4"/>
+      <c r="L150" s="4"/>
+      <c r="M150" s="4"/>
+      <c r="N150" s="4"/>
+      <c r="O150" s="4"/>
+      <c r="P150" s="4"/>
+      <c r="Q150" s="4"/>
+      <c r="R150" s="4"/>
+      <c r="S150" s="4"/>
+      <c r="T150" s="4"/>
+      <c r="U150" s="4"/>
+      <c r="V150" s="4"/>
+      <c r="W150" s="4"/>
     </row>
     <row r="151" spans="1:23">
       <c r="C151" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152" spans="1:23">
       <c r="C152" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23">
+      <c r="D153" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="153" spans="1:23">
-      <c r="D153" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E153" s="4"/>
-      <c r="F153" s="4"/>
-      <c r="G153" s="4"/>
-      <c r="H153" s="4"/>
-      <c r="I153" s="4"/>
-      <c r="J153" s="4"/>
-      <c r="K153" s="4"/>
-      <c r="L153" s="4"/>
-      <c r="M153" s="4"/>
-      <c r="N153" s="4"/>
-      <c r="O153" s="4"/>
-      <c r="P153" s="4"/>
-      <c r="Q153" s="4"/>
-      <c r="R153" s="4"/>
-      <c r="S153" s="4"/>
-      <c r="T153" s="4"/>
-      <c r="U153" s="4"/>
-      <c r="V153" s="4"/>
-      <c r="W153" s="4"/>
+      <c r="E153" s="6"/>
+      <c r="F153" s="6"/>
+      <c r="G153" s="6"/>
+      <c r="H153" s="6"/>
+      <c r="I153" s="6"/>
+      <c r="J153" s="6"/>
+      <c r="K153" s="6"/>
+      <c r="L153" s="6"/>
+      <c r="M153" s="6"/>
+      <c r="N153" s="6"/>
+      <c r="O153" s="6"/>
+      <c r="P153" s="6"/>
+      <c r="Q153" s="6"/>
+      <c r="R153" s="6"/>
+      <c r="S153" s="6"/>
+      <c r="T153" s="6"/>
+      <c r="U153" s="6"/>
+      <c r="V153" s="6"/>
+      <c r="W153" s="6"/>
     </row>
     <row r="154" spans="1:23">
-      <c r="D154" s="4"/>
-      <c r="E154" s="4"/>
-      <c r="F154" s="4"/>
-      <c r="G154" s="4"/>
-      <c r="H154" s="4"/>
-      <c r="I154" s="4"/>
-      <c r="J154" s="4"/>
-      <c r="K154" s="4"/>
-      <c r="L154" s="4"/>
-      <c r="M154" s="4"/>
-      <c r="N154" s="4"/>
-      <c r="O154" s="4"/>
-      <c r="P154" s="4"/>
-      <c r="Q154" s="4"/>
-      <c r="R154" s="4"/>
-      <c r="S154" s="4"/>
-      <c r="T154" s="4"/>
-      <c r="U154" s="4"/>
-      <c r="V154" s="4"/>
-      <c r="W154" s="4"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+      <c r="F154" s="6"/>
+      <c r="G154" s="6"/>
+      <c r="H154" s="6"/>
+      <c r="I154" s="6"/>
+      <c r="J154" s="6"/>
+      <c r="K154" s="6"/>
+      <c r="L154" s="6"/>
+      <c r="M154" s="6"/>
+      <c r="N154" s="6"/>
+      <c r="O154" s="6"/>
+      <c r="P154" s="6"/>
+      <c r="Q154" s="6"/>
+      <c r="R154" s="6"/>
+      <c r="S154" s="6"/>
+      <c r="T154" s="6"/>
+      <c r="U154" s="6"/>
+      <c r="V154" s="6"/>
+      <c r="W154" s="6"/>
     </row>
     <row r="155" spans="1:23">
-      <c r="D155" s="4"/>
-      <c r="E155" s="4"/>
-      <c r="F155" s="4"/>
-      <c r="G155" s="4"/>
-      <c r="H155" s="4"/>
-      <c r="I155" s="4"/>
-      <c r="J155" s="4"/>
-      <c r="K155" s="4"/>
-      <c r="L155" s="4"/>
-      <c r="M155" s="4"/>
-      <c r="N155" s="4"/>
-      <c r="O155" s="4"/>
-      <c r="P155" s="4"/>
-      <c r="Q155" s="4"/>
-      <c r="R155" s="4"/>
-      <c r="S155" s="4"/>
-      <c r="T155" s="4"/>
-      <c r="U155" s="4"/>
-      <c r="V155" s="4"/>
-      <c r="W155" s="4"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+      <c r="F155" s="6"/>
+      <c r="G155" s="6"/>
+      <c r="H155" s="6"/>
+      <c r="I155" s="6"/>
+      <c r="J155" s="6"/>
+      <c r="K155" s="6"/>
+      <c r="L155" s="6"/>
+      <c r="M155" s="6"/>
+      <c r="N155" s="6"/>
+      <c r="O155" s="6"/>
+      <c r="P155" s="6"/>
+      <c r="Q155" s="6"/>
+      <c r="R155" s="6"/>
+      <c r="S155" s="6"/>
+      <c r="T155" s="6"/>
+      <c r="U155" s="6"/>
+      <c r="V155" s="6"/>
+      <c r="W155" s="6"/>
     </row>
     <row r="156" spans="1:23">
-      <c r="D156" s="4"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="4"/>
-      <c r="G156" s="4"/>
-      <c r="H156" s="4"/>
-      <c r="I156" s="4"/>
-      <c r="J156" s="4"/>
-      <c r="K156" s="4"/>
-      <c r="L156" s="4"/>
-      <c r="M156" s="4"/>
-      <c r="N156" s="4"/>
-      <c r="O156" s="4"/>
-      <c r="P156" s="4"/>
-      <c r="Q156" s="4"/>
-      <c r="R156" s="4"/>
-      <c r="S156" s="4"/>
-      <c r="T156" s="4"/>
-      <c r="U156" s="4"/>
-      <c r="V156" s="4"/>
-      <c r="W156" s="4"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
+      <c r="F156" s="6"/>
+      <c r="G156" s="6"/>
+      <c r="H156" s="6"/>
+      <c r="I156" s="6"/>
+      <c r="J156" s="6"/>
+      <c r="K156" s="6"/>
+      <c r="L156" s="6"/>
+      <c r="M156" s="6"/>
+      <c r="N156" s="6"/>
+      <c r="O156" s="6"/>
+      <c r="P156" s="6"/>
+      <c r="Q156" s="6"/>
+      <c r="R156" s="6"/>
+      <c r="S156" s="6"/>
+      <c r="T156" s="6"/>
+      <c r="U156" s="6"/>
+      <c r="V156" s="6"/>
+      <c r="W156" s="6"/>
     </row>
     <row r="157" spans="1:23">
-      <c r="D157" s="4"/>
-      <c r="E157" s="4"/>
-      <c r="F157" s="4"/>
-      <c r="G157" s="4"/>
-      <c r="H157" s="4"/>
-      <c r="I157" s="4"/>
-      <c r="J157" s="4"/>
-      <c r="K157" s="4"/>
-      <c r="L157" s="4"/>
-      <c r="M157" s="4"/>
-      <c r="N157" s="4"/>
-      <c r="O157" s="4"/>
-      <c r="P157" s="4"/>
-      <c r="Q157" s="4"/>
-      <c r="R157" s="4"/>
-      <c r="S157" s="4"/>
-      <c r="T157" s="4"/>
-      <c r="U157" s="4"/>
-      <c r="V157" s="4"/>
-      <c r="W157" s="4"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="6"/>
+      <c r="G157" s="6"/>
+      <c r="H157" s="6"/>
+      <c r="I157" s="6"/>
+      <c r="J157" s="6"/>
+      <c r="K157" s="6"/>
+      <c r="L157" s="6"/>
+      <c r="M157" s="6"/>
+      <c r="N157" s="6"/>
+      <c r="O157" s="6"/>
+      <c r="P157" s="6"/>
+      <c r="Q157" s="6"/>
+      <c r="R157" s="6"/>
+      <c r="S157" s="6"/>
+      <c r="T157" s="6"/>
+      <c r="U157" s="6"/>
+      <c r="V157" s="6"/>
+      <c r="W157" s="6"/>
     </row>
     <row r="158" spans="1:23">
-      <c r="D158" s="4"/>
-      <c r="E158" s="4"/>
-      <c r="F158" s="4"/>
-      <c r="G158" s="4"/>
-      <c r="H158" s="4"/>
-      <c r="I158" s="4"/>
-      <c r="J158" s="4"/>
-      <c r="K158" s="4"/>
-      <c r="L158" s="4"/>
-      <c r="M158" s="4"/>
-      <c r="N158" s="4"/>
-      <c r="O158" s="4"/>
-      <c r="P158" s="4"/>
-      <c r="Q158" s="4"/>
-      <c r="R158" s="4"/>
-      <c r="S158" s="4"/>
-      <c r="T158" s="4"/>
-      <c r="U158" s="4"/>
-      <c r="V158" s="4"/>
-      <c r="W158" s="4"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+      <c r="F158" s="6"/>
+      <c r="G158" s="6"/>
+      <c r="H158" s="6"/>
+      <c r="I158" s="6"/>
+      <c r="J158" s="6"/>
+      <c r="K158" s="6"/>
+      <c r="L158" s="6"/>
+      <c r="M158" s="6"/>
+      <c r="N158" s="6"/>
+      <c r="O158" s="6"/>
+      <c r="P158" s="6"/>
+      <c r="Q158" s="6"/>
+      <c r="R158" s="6"/>
+      <c r="S158" s="6"/>
+      <c r="T158" s="6"/>
+      <c r="U158" s="6"/>
+      <c r="V158" s="6"/>
+      <c r="W158" s="6"/>
     </row>
     <row r="159" spans="1:23">
-      <c r="D159" s="4"/>
-      <c r="E159" s="4"/>
-      <c r="F159" s="4"/>
-      <c r="G159" s="4"/>
-      <c r="H159" s="4"/>
-      <c r="I159" s="4"/>
-      <c r="J159" s="4"/>
-      <c r="K159" s="4"/>
-      <c r="L159" s="4"/>
-      <c r="M159" s="4"/>
-      <c r="N159" s="4"/>
-      <c r="O159" s="4"/>
-      <c r="P159" s="4"/>
-      <c r="Q159" s="4"/>
-      <c r="R159" s="4"/>
-      <c r="S159" s="4"/>
-      <c r="T159" s="4"/>
-      <c r="U159" s="4"/>
-      <c r="V159" s="4"/>
-      <c r="W159" s="4"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+      <c r="F159" s="6"/>
+      <c r="G159" s="6"/>
+      <c r="H159" s="6"/>
+      <c r="I159" s="6"/>
+      <c r="J159" s="6"/>
+      <c r="K159" s="6"/>
+      <c r="L159" s="6"/>
+      <c r="M159" s="6"/>
+      <c r="N159" s="6"/>
+      <c r="O159" s="6"/>
+      <c r="P159" s="6"/>
+      <c r="Q159" s="6"/>
+      <c r="R159" s="6"/>
+      <c r="S159" s="6"/>
+      <c r="T159" s="6"/>
+      <c r="U159" s="6"/>
+      <c r="V159" s="6"/>
+      <c r="W159" s="6"/>
     </row>
     <row r="160" spans="1:23">
-      <c r="D160" s="4"/>
-      <c r="E160" s="4"/>
-      <c r="F160" s="4"/>
-      <c r="G160" s="4"/>
-      <c r="H160" s="4"/>
-      <c r="I160" s="4"/>
-      <c r="J160" s="4"/>
-      <c r="K160" s="4"/>
-      <c r="L160" s="4"/>
-      <c r="M160" s="4"/>
-      <c r="N160" s="4"/>
-      <c r="O160" s="4"/>
-      <c r="P160" s="4"/>
-      <c r="Q160" s="4"/>
-      <c r="R160" s="4"/>
-      <c r="S160" s="4"/>
-      <c r="T160" s="4"/>
-      <c r="U160" s="4"/>
-      <c r="V160" s="4"/>
-      <c r="W160" s="4"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
+      <c r="F160" s="6"/>
+      <c r="G160" s="6"/>
+      <c r="H160" s="6"/>
+      <c r="I160" s="6"/>
+      <c r="J160" s="6"/>
+      <c r="K160" s="6"/>
+      <c r="L160" s="6"/>
+      <c r="M160" s="6"/>
+      <c r="N160" s="6"/>
+      <c r="O160" s="6"/>
+      <c r="P160" s="6"/>
+      <c r="Q160" s="6"/>
+      <c r="R160" s="6"/>
+      <c r="S160" s="6"/>
+      <c r="T160" s="6"/>
+      <c r="U160" s="6"/>
+      <c r="V160" s="6"/>
+      <c r="W160" s="6"/>
     </row>
     <row r="161" spans="4:23">
-      <c r="D161" s="4"/>
-      <c r="E161" s="4"/>
-      <c r="F161" s="4"/>
-      <c r="G161" s="4"/>
-      <c r="H161" s="4"/>
-      <c r="I161" s="4"/>
-      <c r="J161" s="4"/>
-      <c r="K161" s="4"/>
-      <c r="L161" s="4"/>
-      <c r="M161" s="4"/>
-      <c r="N161" s="4"/>
-      <c r="O161" s="4"/>
-      <c r="P161" s="4"/>
-      <c r="Q161" s="4"/>
-      <c r="R161" s="4"/>
-      <c r="S161" s="4"/>
-      <c r="T161" s="4"/>
-      <c r="U161" s="4"/>
-      <c r="V161" s="4"/>
-      <c r="W161" s="4"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+      <c r="F161" s="6"/>
+      <c r="G161" s="6"/>
+      <c r="H161" s="6"/>
+      <c r="I161" s="6"/>
+      <c r="J161" s="6"/>
+      <c r="K161" s="6"/>
+      <c r="L161" s="6"/>
+      <c r="M161" s="6"/>
+      <c r="N161" s="6"/>
+      <c r="O161" s="6"/>
+      <c r="P161" s="6"/>
+      <c r="Q161" s="6"/>
+      <c r="R161" s="6"/>
+      <c r="S161" s="6"/>
+      <c r="T161" s="6"/>
+      <c r="U161" s="6"/>
+      <c r="V161" s="6"/>
+      <c r="W161" s="6"/>
     </row>
     <row r="162" spans="4:23">
-      <c r="D162" s="4"/>
-      <c r="E162" s="4"/>
-      <c r="F162" s="4"/>
-      <c r="G162" s="4"/>
-      <c r="H162" s="4"/>
-      <c r="I162" s="4"/>
-      <c r="J162" s="4"/>
-      <c r="K162" s="4"/>
-      <c r="L162" s="4"/>
-      <c r="M162" s="4"/>
-      <c r="N162" s="4"/>
-      <c r="O162" s="4"/>
-      <c r="P162" s="4"/>
-      <c r="Q162" s="4"/>
-      <c r="R162" s="4"/>
-      <c r="S162" s="4"/>
-      <c r="T162" s="4"/>
-      <c r="U162" s="4"/>
-      <c r="V162" s="4"/>
-      <c r="W162" s="4"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="6"/>
+      <c r="F162" s="6"/>
+      <c r="G162" s="6"/>
+      <c r="H162" s="6"/>
+      <c r="I162" s="6"/>
+      <c r="J162" s="6"/>
+      <c r="K162" s="6"/>
+      <c r="L162" s="6"/>
+      <c r="M162" s="6"/>
+      <c r="N162" s="6"/>
+      <c r="O162" s="6"/>
+      <c r="P162" s="6"/>
+      <c r="Q162" s="6"/>
+      <c r="R162" s="6"/>
+      <c r="S162" s="6"/>
+      <c r="T162" s="6"/>
+      <c r="U162" s="6"/>
+      <c r="V162" s="6"/>
+      <c r="W162" s="6"/>
     </row>
     <row r="163" spans="4:23">
-      <c r="D163" s="4"/>
-      <c r="E163" s="4"/>
-      <c r="F163" s="4"/>
-      <c r="G163" s="4"/>
-      <c r="H163" s="4"/>
-      <c r="I163" s="4"/>
-      <c r="J163" s="4"/>
-      <c r="K163" s="4"/>
-      <c r="L163" s="4"/>
-      <c r="M163" s="4"/>
-      <c r="N163" s="4"/>
-      <c r="O163" s="4"/>
-      <c r="P163" s="4"/>
-      <c r="Q163" s="4"/>
-      <c r="R163" s="4"/>
-      <c r="S163" s="4"/>
-      <c r="T163" s="4"/>
-      <c r="U163" s="4"/>
-      <c r="V163" s="4"/>
-      <c r="W163" s="4"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="6"/>
+      <c r="F163" s="6"/>
+      <c r="G163" s="6"/>
+      <c r="H163" s="6"/>
+      <c r="I163" s="6"/>
+      <c r="J163" s="6"/>
+      <c r="K163" s="6"/>
+      <c r="L163" s="6"/>
+      <c r="M163" s="6"/>
+      <c r="N163" s="6"/>
+      <c r="O163" s="6"/>
+      <c r="P163" s="6"/>
+      <c r="Q163" s="6"/>
+      <c r="R163" s="6"/>
+      <c r="S163" s="6"/>
+      <c r="T163" s="6"/>
+      <c r="U163" s="6"/>
+      <c r="V163" s="6"/>
+      <c r="W163" s="6"/>
     </row>
     <row r="164" spans="4:23">
-      <c r="D164" s="4"/>
-      <c r="E164" s="4"/>
-      <c r="F164" s="4"/>
-      <c r="G164" s="4"/>
-      <c r="H164" s="4"/>
-      <c r="I164" s="4"/>
-      <c r="J164" s="4"/>
-      <c r="K164" s="4"/>
-      <c r="L164" s="4"/>
-      <c r="M164" s="4"/>
-      <c r="N164" s="4"/>
-      <c r="O164" s="4"/>
-      <c r="P164" s="4"/>
-      <c r="Q164" s="4"/>
-      <c r="R164" s="4"/>
-      <c r="S164" s="4"/>
-      <c r="T164" s="4"/>
-      <c r="U164" s="4"/>
-      <c r="V164" s="4"/>
-      <c r="W164" s="4"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6"/>
+      <c r="F164" s="6"/>
+      <c r="G164" s="6"/>
+      <c r="H164" s="6"/>
+      <c r="I164" s="6"/>
+      <c r="J164" s="6"/>
+      <c r="K164" s="6"/>
+      <c r="L164" s="6"/>
+      <c r="M164" s="6"/>
+      <c r="N164" s="6"/>
+      <c r="O164" s="6"/>
+      <c r="P164" s="6"/>
+      <c r="Q164" s="6"/>
+      <c r="R164" s="6"/>
+      <c r="S164" s="6"/>
+      <c r="T164" s="6"/>
+      <c r="U164" s="6"/>
+      <c r="V164" s="6"/>
+      <c r="W164" s="6"/>
     </row>
     <row r="165" spans="4:23">
-      <c r="D165" s="4"/>
-      <c r="E165" s="4"/>
-      <c r="F165" s="4"/>
-      <c r="G165" s="4"/>
-      <c r="H165" s="4"/>
-      <c r="I165" s="4"/>
-      <c r="J165" s="4"/>
-      <c r="K165" s="4"/>
-      <c r="L165" s="4"/>
-      <c r="M165" s="4"/>
-      <c r="N165" s="4"/>
-      <c r="O165" s="4"/>
-      <c r="P165" s="4"/>
-      <c r="Q165" s="4"/>
-      <c r="R165" s="4"/>
-      <c r="S165" s="4"/>
-      <c r="T165" s="4"/>
-      <c r="U165" s="4"/>
-      <c r="V165" s="4"/>
-      <c r="W165" s="4"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="6"/>
+      <c r="F165" s="6"/>
+      <c r="G165" s="6"/>
+      <c r="H165" s="6"/>
+      <c r="I165" s="6"/>
+      <c r="J165" s="6"/>
+      <c r="K165" s="6"/>
+      <c r="L165" s="6"/>
+      <c r="M165" s="6"/>
+      <c r="N165" s="6"/>
+      <c r="O165" s="6"/>
+      <c r="P165" s="6"/>
+      <c r="Q165" s="6"/>
+      <c r="R165" s="6"/>
+      <c r="S165" s="6"/>
+      <c r="T165" s="6"/>
+      <c r="U165" s="6"/>
+      <c r="V165" s="6"/>
+      <c r="W165" s="6"/>
     </row>
     <row r="166" spans="4:23">
-      <c r="D166" s="4"/>
-      <c r="E166" s="4"/>
-      <c r="F166" s="4"/>
-      <c r="G166" s="4"/>
-      <c r="H166" s="4"/>
-      <c r="I166" s="4"/>
-      <c r="J166" s="4"/>
-      <c r="K166" s="4"/>
-      <c r="L166" s="4"/>
-      <c r="M166" s="4"/>
-      <c r="N166" s="4"/>
-      <c r="O166" s="4"/>
-      <c r="P166" s="4"/>
-      <c r="Q166" s="4"/>
-      <c r="R166" s="4"/>
-      <c r="S166" s="4"/>
-      <c r="T166" s="4"/>
-      <c r="U166" s="4"/>
-      <c r="V166" s="4"/>
-      <c r="W166" s="4"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="6"/>
+      <c r="F166" s="6"/>
+      <c r="G166" s="6"/>
+      <c r="H166" s="6"/>
+      <c r="I166" s="6"/>
+      <c r="J166" s="6"/>
+      <c r="K166" s="6"/>
+      <c r="L166" s="6"/>
+      <c r="M166" s="6"/>
+      <c r="N166" s="6"/>
+      <c r="O166" s="6"/>
+      <c r="P166" s="6"/>
+      <c r="Q166" s="6"/>
+      <c r="R166" s="6"/>
+      <c r="S166" s="6"/>
+      <c r="T166" s="6"/>
+      <c r="U166" s="6"/>
+      <c r="V166" s="6"/>
+      <c r="W166" s="6"/>
     </row>
     <row r="167" spans="4:23">
-      <c r="D167" s="4"/>
-      <c r="E167" s="4"/>
-      <c r="F167" s="4"/>
-      <c r="G167" s="4"/>
-      <c r="H167" s="4"/>
-      <c r="I167" s="4"/>
-      <c r="J167" s="4"/>
-      <c r="K167" s="4"/>
-      <c r="L167" s="4"/>
-      <c r="M167" s="4"/>
-      <c r="N167" s="4"/>
-      <c r="O167" s="4"/>
-      <c r="P167" s="4"/>
-      <c r="Q167" s="4"/>
-      <c r="R167" s="4"/>
-      <c r="S167" s="4"/>
-      <c r="T167" s="4"/>
-      <c r="U167" s="4"/>
-      <c r="V167" s="4"/>
-      <c r="W167" s="4"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="6"/>
+      <c r="F167" s="6"/>
+      <c r="G167" s="6"/>
+      <c r="H167" s="6"/>
+      <c r="I167" s="6"/>
+      <c r="J167" s="6"/>
+      <c r="K167" s="6"/>
+      <c r="L167" s="6"/>
+      <c r="M167" s="6"/>
+      <c r="N167" s="6"/>
+      <c r="O167" s="6"/>
+      <c r="P167" s="6"/>
+      <c r="Q167" s="6"/>
+      <c r="R167" s="6"/>
+      <c r="S167" s="6"/>
+      <c r="T167" s="6"/>
+      <c r="U167" s="6"/>
+      <c r="V167" s="6"/>
+      <c r="W167" s="6"/>
     </row>
     <row r="168" spans="4:23">
-      <c r="D168" s="4"/>
-      <c r="E168" s="4"/>
-      <c r="F168" s="4"/>
-      <c r="G168" s="4"/>
-      <c r="H168" s="4"/>
-      <c r="I168" s="4"/>
-      <c r="J168" s="4"/>
-      <c r="K168" s="4"/>
-      <c r="L168" s="4"/>
-      <c r="M168" s="4"/>
-      <c r="N168" s="4"/>
-      <c r="O168" s="4"/>
-      <c r="P168" s="4"/>
-      <c r="Q168" s="4"/>
-      <c r="R168" s="4"/>
-      <c r="S168" s="4"/>
-      <c r="T168" s="4"/>
-      <c r="U168" s="4"/>
-      <c r="V168" s="4"/>
-      <c r="W168" s="4"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="6"/>
+      <c r="F168" s="6"/>
+      <c r="G168" s="6"/>
+      <c r="H168" s="6"/>
+      <c r="I168" s="6"/>
+      <c r="J168" s="6"/>
+      <c r="K168" s="6"/>
+      <c r="L168" s="6"/>
+      <c r="M168" s="6"/>
+      <c r="N168" s="6"/>
+      <c r="O168" s="6"/>
+      <c r="P168" s="6"/>
+      <c r="Q168" s="6"/>
+      <c r="R168" s="6"/>
+      <c r="S168" s="6"/>
+      <c r="T168" s="6"/>
+      <c r="U168" s="6"/>
+      <c r="V168" s="6"/>
+      <c r="W168" s="6"/>
     </row>
     <row r="169" spans="4:23">
-      <c r="D169" s="4"/>
-      <c r="E169" s="4"/>
-      <c r="F169" s="4"/>
-      <c r="G169" s="4"/>
-      <c r="H169" s="4"/>
-      <c r="I169" s="4"/>
-      <c r="J169" s="4"/>
-      <c r="K169" s="4"/>
-      <c r="L169" s="4"/>
-      <c r="M169" s="4"/>
-      <c r="N169" s="4"/>
-      <c r="O169" s="4"/>
-      <c r="P169" s="4"/>
-      <c r="Q169" s="4"/>
-      <c r="R169" s="4"/>
-      <c r="S169" s="4"/>
-      <c r="T169" s="4"/>
-      <c r="U169" s="4"/>
-      <c r="V169" s="4"/>
-      <c r="W169" s="4"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
+      <c r="F169" s="6"/>
+      <c r="G169" s="6"/>
+      <c r="H169" s="6"/>
+      <c r="I169" s="6"/>
+      <c r="J169" s="6"/>
+      <c r="K169" s="6"/>
+      <c r="L169" s="6"/>
+      <c r="M169" s="6"/>
+      <c r="N169" s="6"/>
+      <c r="O169" s="6"/>
+      <c r="P169" s="6"/>
+      <c r="Q169" s="6"/>
+      <c r="R169" s="6"/>
+      <c r="S169" s="6"/>
+      <c r="T169" s="6"/>
+      <c r="U169" s="6"/>
+      <c r="V169" s="6"/>
+      <c r="W169" s="6"/>
     </row>
     <row r="170" spans="4:23">
-      <c r="D170" s="4"/>
-      <c r="E170" s="4"/>
-      <c r="F170" s="4"/>
-      <c r="G170" s="4"/>
-      <c r="H170" s="4"/>
-      <c r="I170" s="4"/>
-      <c r="J170" s="4"/>
-      <c r="K170" s="4"/>
-      <c r="L170" s="4"/>
-      <c r="M170" s="4"/>
-      <c r="N170" s="4"/>
-      <c r="O170" s="4"/>
-      <c r="P170" s="4"/>
-      <c r="Q170" s="4"/>
-      <c r="R170" s="4"/>
-      <c r="S170" s="4"/>
-      <c r="T170" s="4"/>
-      <c r="U170" s="4"/>
-      <c r="V170" s="4"/>
-      <c r="W170" s="4"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="6"/>
+      <c r="F170" s="6"/>
+      <c r="G170" s="6"/>
+      <c r="H170" s="6"/>
+      <c r="I170" s="6"/>
+      <c r="J170" s="6"/>
+      <c r="K170" s="6"/>
+      <c r="L170" s="6"/>
+      <c r="M170" s="6"/>
+      <c r="N170" s="6"/>
+      <c r="O170" s="6"/>
+      <c r="P170" s="6"/>
+      <c r="Q170" s="6"/>
+      <c r="R170" s="6"/>
+      <c r="S170" s="6"/>
+      <c r="T170" s="6"/>
+      <c r="U170" s="6"/>
+      <c r="V170" s="6"/>
+      <c r="W170" s="6"/>
     </row>
     <row r="171" spans="4:23">
-      <c r="D171" s="4"/>
-      <c r="E171" s="4"/>
-      <c r="F171" s="4"/>
-      <c r="G171" s="4"/>
-      <c r="H171" s="4"/>
-      <c r="I171" s="4"/>
-      <c r="J171" s="4"/>
-      <c r="K171" s="4"/>
-      <c r="L171" s="4"/>
-      <c r="M171" s="4"/>
-      <c r="N171" s="4"/>
-      <c r="O171" s="4"/>
-      <c r="P171" s="4"/>
-      <c r="Q171" s="4"/>
-      <c r="R171" s="4"/>
-      <c r="S171" s="4"/>
-      <c r="T171" s="4"/>
-      <c r="U171" s="4"/>
-      <c r="V171" s="4"/>
-      <c r="W171" s="4"/>
+      <c r="D171" s="6"/>
+      <c r="E171" s="6"/>
+      <c r="F171" s="6"/>
+      <c r="G171" s="6"/>
+      <c r="H171" s="6"/>
+      <c r="I171" s="6"/>
+      <c r="J171" s="6"/>
+      <c r="K171" s="6"/>
+      <c r="L171" s="6"/>
+      <c r="M171" s="6"/>
+      <c r="N171" s="6"/>
+      <c r="O171" s="6"/>
+      <c r="P171" s="6"/>
+      <c r="Q171" s="6"/>
+      <c r="R171" s="6"/>
+      <c r="S171" s="6"/>
+      <c r="T171" s="6"/>
+      <c r="U171" s="6"/>
+      <c r="V171" s="6"/>
+      <c r="W171" s="6"/>
     </row>
     <row r="172" spans="4:23">
-      <c r="D172" s="4"/>
-      <c r="E172" s="4"/>
-      <c r="F172" s="4"/>
-      <c r="G172" s="4"/>
-      <c r="H172" s="4"/>
-      <c r="I172" s="4"/>
-      <c r="J172" s="4"/>
-      <c r="K172" s="4"/>
-      <c r="L172" s="4"/>
-      <c r="M172" s="4"/>
-      <c r="N172" s="4"/>
-      <c r="O172" s="4"/>
-      <c r="P172" s="4"/>
-      <c r="Q172" s="4"/>
-      <c r="R172" s="4"/>
-      <c r="S172" s="4"/>
-      <c r="T172" s="4"/>
-      <c r="U172" s="4"/>
-      <c r="V172" s="4"/>
-      <c r="W172" s="4"/>
+      <c r="D172" s="6"/>
+      <c r="E172" s="6"/>
+      <c r="F172" s="6"/>
+      <c r="G172" s="6"/>
+      <c r="H172" s="6"/>
+      <c r="I172" s="6"/>
+      <c r="J172" s="6"/>
+      <c r="K172" s="6"/>
+      <c r="L172" s="6"/>
+      <c r="M172" s="6"/>
+      <c r="N172" s="6"/>
+      <c r="O172" s="6"/>
+      <c r="P172" s="6"/>
+      <c r="Q172" s="6"/>
+      <c r="R172" s="6"/>
+      <c r="S172" s="6"/>
+      <c r="T172" s="6"/>
+      <c r="U172" s="6"/>
+      <c r="V172" s="6"/>
+      <c r="W172" s="6"/>
     </row>
     <row r="173" spans="4:23">
-      <c r="D173" s="4"/>
-      <c r="E173" s="4"/>
-      <c r="F173" s="4"/>
-      <c r="G173" s="4"/>
-      <c r="H173" s="4"/>
-      <c r="I173" s="4"/>
-      <c r="J173" s="4"/>
-      <c r="K173" s="4"/>
-      <c r="L173" s="4"/>
-      <c r="M173" s="4"/>
-      <c r="N173" s="4"/>
-      <c r="O173" s="4"/>
-      <c r="P173" s="4"/>
-      <c r="Q173" s="4"/>
-      <c r="R173" s="4"/>
-      <c r="S173" s="4"/>
-      <c r="T173" s="4"/>
-      <c r="U173" s="4"/>
-      <c r="V173" s="4"/>
-      <c r="W173" s="4"/>
+      <c r="D173" s="6"/>
+      <c r="E173" s="6"/>
+      <c r="F173" s="6"/>
+      <c r="G173" s="6"/>
+      <c r="H173" s="6"/>
+      <c r="I173" s="6"/>
+      <c r="J173" s="6"/>
+      <c r="K173" s="6"/>
+      <c r="L173" s="6"/>
+      <c r="M173" s="6"/>
+      <c r="N173" s="6"/>
+      <c r="O173" s="6"/>
+      <c r="P173" s="6"/>
+      <c r="Q173" s="6"/>
+      <c r="R173" s="6"/>
+      <c r="S173" s="6"/>
+      <c r="T173" s="6"/>
+      <c r="U173" s="6"/>
+      <c r="V173" s="6"/>
+      <c r="W173" s="6"/>
     </row>
     <row r="174" spans="4:23">
-      <c r="D174" s="4"/>
-      <c r="E174" s="4"/>
-      <c r="F174" s="4"/>
-      <c r="G174" s="4"/>
-      <c r="H174" s="4"/>
-      <c r="I174" s="4"/>
-      <c r="J174" s="4"/>
-      <c r="K174" s="4"/>
-      <c r="L174" s="4"/>
-      <c r="M174" s="4"/>
-      <c r="N174" s="4"/>
-      <c r="O174" s="4"/>
-      <c r="P174" s="4"/>
-      <c r="Q174" s="4"/>
-      <c r="R174" s="4"/>
-      <c r="S174" s="4"/>
-      <c r="T174" s="4"/>
-      <c r="U174" s="4"/>
-      <c r="V174" s="4"/>
-      <c r="W174" s="4"/>
+      <c r="D174" s="6"/>
+      <c r="E174" s="6"/>
+      <c r="F174" s="6"/>
+      <c r="G174" s="6"/>
+      <c r="H174" s="6"/>
+      <c r="I174" s="6"/>
+      <c r="J174" s="6"/>
+      <c r="K174" s="6"/>
+      <c r="L174" s="6"/>
+      <c r="M174" s="6"/>
+      <c r="N174" s="6"/>
+      <c r="O174" s="6"/>
+      <c r="P174" s="6"/>
+      <c r="Q174" s="6"/>
+      <c r="R174" s="6"/>
+      <c r="S174" s="6"/>
+      <c r="T174" s="6"/>
+      <c r="U174" s="6"/>
+      <c r="V174" s="6"/>
+      <c r="W174" s="6"/>
     </row>
     <row r="175" spans="4:23">
-      <c r="D175" s="4"/>
-      <c r="E175" s="4"/>
-      <c r="F175" s="4"/>
-      <c r="G175" s="4"/>
-      <c r="H175" s="4"/>
-      <c r="I175" s="4"/>
-      <c r="J175" s="4"/>
-      <c r="K175" s="4"/>
-      <c r="L175" s="4"/>
-      <c r="M175" s="4"/>
-      <c r="N175" s="4"/>
-      <c r="O175" s="4"/>
-      <c r="P175" s="4"/>
-      <c r="Q175" s="4"/>
-      <c r="R175" s="4"/>
-      <c r="S175" s="4"/>
-      <c r="T175" s="4"/>
-      <c r="U175" s="4"/>
-      <c r="V175" s="4"/>
-      <c r="W175" s="4"/>
+      <c r="D175" s="6"/>
+      <c r="E175" s="6"/>
+      <c r="F175" s="6"/>
+      <c r="G175" s="6"/>
+      <c r="H175" s="6"/>
+      <c r="I175" s="6"/>
+      <c r="J175" s="6"/>
+      <c r="K175" s="6"/>
+      <c r="L175" s="6"/>
+      <c r="M175" s="6"/>
+      <c r="N175" s="6"/>
+      <c r="O175" s="6"/>
+      <c r="P175" s="6"/>
+      <c r="Q175" s="6"/>
+      <c r="R175" s="6"/>
+      <c r="S175" s="6"/>
+      <c r="T175" s="6"/>
+      <c r="U175" s="6"/>
+      <c r="V175" s="6"/>
+      <c r="W175" s="6"/>
     </row>
     <row r="177" spans="3:3">
       <c r="C177" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="206" spans="2:2">
       <c r="B206" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
